--- a/DATA/US-IndOcSec_Disability.xlsx
+++ b/DATA/US-IndOcSec_Disability.xlsx
@@ -9900,7 +9900,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="A1:G24"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
